--- a/Data_frame/balancos_definitivos/CXSE3.xlsx
+++ b/Data_frame/balancos_definitivos/CXSE3.xlsx
@@ -707,31 +707,31 @@
         <v>10502356.992</v>
       </c>
       <c r="AA2" t="n">
-        <v>2177210.88</v>
+        <v>10911012.864</v>
       </c>
       <c r="AB2" t="n">
-        <v>2597922.048</v>
+        <v>10655114.24</v>
       </c>
       <c r="AC2" t="n">
-        <v>2933908.992</v>
+        <v>11232995.328</v>
       </c>
       <c r="AD2" t="n">
-        <v>2917630.976</v>
+        <v>11038651.392</v>
       </c>
       <c r="AE2" t="n">
-        <v>2784852.992</v>
+        <v>11910013.952</v>
       </c>
       <c r="AF2" t="n">
-        <v>2798430.976</v>
+        <v>11709267.968</v>
       </c>
       <c r="AG2" t="n">
-        <v>2733836.032</v>
+        <v>14017541.12</v>
       </c>
       <c r="AH2" t="n">
-        <v>2836649.984</v>
+        <v>13456728.064</v>
       </c>
       <c r="AI2" t="n">
-        <v>3150611.968</v>
+        <v>14400964.608</v>
       </c>
       <c r="AJ2" t="n">
         <v>14004319.232</v>
@@ -825,31 +825,31 @@
         <v>552337.9840000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>1627507.968</v>
+        <v>776190.0159999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>1874317.952</v>
+        <v>971392</v>
       </c>
       <c r="AC3" t="n">
-        <v>2090956.032</v>
+        <v>1498768</v>
       </c>
       <c r="AD3" t="n">
-        <v>2147877.12</v>
+        <v>818267.008</v>
       </c>
       <c r="AE3" t="n">
-        <v>2033840</v>
+        <v>1436081.024</v>
       </c>
       <c r="AF3" t="n">
-        <v>2063522.048</v>
+        <v>1666989.952</v>
       </c>
       <c r="AG3" t="n">
-        <v>2136273.024</v>
+        <v>2219858.944</v>
       </c>
       <c r="AH3" t="n">
-        <v>2188830.976</v>
+        <v>986008</v>
       </c>
       <c r="AI3" t="n">
-        <v>2316219.904</v>
+        <v>2026608</v>
       </c>
       <c r="AJ3" t="n">
         <v>1464595.968</v>
@@ -943,31 +943,31 @@
         <v>156</v>
       </c>
       <c r="AA4" t="n">
-        <v>414632.992</v>
+        <v>34051</v>
       </c>
       <c r="AB4" t="n">
-        <v>473052</v>
+        <v>470</v>
       </c>
       <c r="AC4" t="n">
-        <v>360920.992</v>
+        <v>944</v>
       </c>
       <c r="AD4" t="n">
-        <v>454073.984</v>
+        <v>655</v>
       </c>
       <c r="AE4" t="n">
-        <v>394521.984</v>
+        <v>810</v>
       </c>
       <c r="AF4" t="n">
-        <v>562264</v>
+        <v>716</v>
       </c>
       <c r="AG4" t="n">
-        <v>470159.008</v>
+        <v>440</v>
       </c>
       <c r="AH4" t="n">
-        <v>556696</v>
+        <v>167</v>
       </c>
       <c r="AI4" t="n">
-        <v>730072</v>
+        <v>299</v>
       </c>
       <c r="AJ4" t="n">
         <v>430</v>
@@ -1061,31 +1061,31 @@
         <v>427652</v>
       </c>
       <c r="AA5" t="n">
-        <v>140294</v>
+        <v>584518.976</v>
       </c>
       <c r="AB5" t="n">
-        <v>218524</v>
+        <v>361904.992</v>
       </c>
       <c r="AC5" t="n">
-        <v>241647.008</v>
+        <v>970148.992</v>
       </c>
       <c r="AD5" t="n">
-        <v>225903.008</v>
+        <v>630140.032</v>
       </c>
       <c r="AE5" t="n">
-        <v>240386</v>
+        <v>1271740.032</v>
       </c>
       <c r="AF5" t="n">
-        <v>227162</v>
+        <v>917344</v>
       </c>
       <c r="AG5" t="n">
-        <v>259664</v>
+        <v>1295644.032</v>
       </c>
       <c r="AH5" t="n">
-        <v>278694.016</v>
+        <v>826046.976</v>
       </c>
       <c r="AI5" t="n">
-        <v>379003.008</v>
+        <v>1878859.008</v>
       </c>
       <c r="AJ5" t="n">
         <v>850819.008</v>
@@ -1179,31 +1179,31 @@
         <v>117559</v>
       </c>
       <c r="AA6" t="n">
-        <v>700281.9840000001</v>
+        <v>130351</v>
       </c>
       <c r="AB6" t="n">
-        <v>661628.992</v>
+        <v>165086</v>
       </c>
       <c r="AC6" t="n">
-        <v>996524.032</v>
+        <v>151416</v>
       </c>
       <c r="AD6" t="n">
-        <v>1004385.984</v>
+        <v>159411.008</v>
       </c>
       <c r="AE6" t="n">
-        <v>870147.008</v>
+        <v>130691</v>
       </c>
       <c r="AF6" t="n">
-        <v>681536</v>
+        <v>105715</v>
       </c>
       <c r="AG6" t="n">
-        <v>677724.032</v>
+        <v>102112</v>
       </c>
       <c r="AH6" t="n">
-        <v>678260.992</v>
+        <v>140460.992</v>
       </c>
       <c r="AI6" t="n">
-        <v>489220.992</v>
+        <v>124900</v>
       </c>
       <c r="AJ6" t="n">
         <v>152522</v>
@@ -1297,31 +1297,31 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>338886.016</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>486665.984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>454883.008</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>420684</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>477112.992</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>534992.992</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>663404.032</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>602449.024</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>626691.008</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>9083</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>6611</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>6676</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>6582</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>8343</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>7297</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>7108</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>9562</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>11558</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -1769,31 +1769,31 @@
         <v>6971</v>
       </c>
       <c r="AA11" t="n">
-        <v>24330</v>
+        <v>27269</v>
       </c>
       <c r="AB11" t="n">
-        <v>27836</v>
+        <v>443931.008</v>
       </c>
       <c r="AC11" t="n">
-        <v>30305</v>
+        <v>376259.008</v>
       </c>
       <c r="AD11" t="n">
-        <v>36248</v>
+        <v>28061</v>
       </c>
       <c r="AE11" t="n">
-        <v>43329</v>
+        <v>32840</v>
       </c>
       <c r="AF11" t="n">
-        <v>50270</v>
+        <v>643214.976</v>
       </c>
       <c r="AG11" t="n">
-        <v>58214</v>
+        <v>821662.976</v>
       </c>
       <c r="AH11" t="n">
-        <v>63169</v>
+        <v>19333</v>
       </c>
       <c r="AI11" t="n">
-        <v>79675</v>
+        <v>22550</v>
       </c>
       <c r="AJ11" t="n">
         <v>460824.992</v>
@@ -1887,31 +1887,31 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>494449.984</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
-        <v>605172.992</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>721395.968</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>645966.976</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>624449.024</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>609379.968</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>465620.992</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>512624</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>703334.0159999999</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2359,31 +2359,31 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>406000</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>518947.008</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>634054.976</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>552406.0159999999</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>529553.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>497726.016</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>372912</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>407428</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>591169.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -2477,31 +2477,31 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>42742</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>46042</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>45908</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>49903</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>51027</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>69096</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>49094</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>55154</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>62334</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -2949,31 +2949,31 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>4788</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>4321</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>4445</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>4724</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>4355</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>5073</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>4990</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>9220</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>9055</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -3067,31 +3067,31 @@
         <v>9949996.032</v>
       </c>
       <c r="AA22" t="n">
-        <v>29674</v>
+        <v>10134803.456</v>
       </c>
       <c r="AB22" t="n">
-        <v>92666</v>
+        <v>9683703.808</v>
       </c>
       <c r="AC22" t="n">
-        <v>97227</v>
+        <v>9734211.584000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>101278</v>
+        <v>10220355.584</v>
       </c>
       <c r="AE22" t="n">
-        <v>104361</v>
+        <v>10473908.224</v>
       </c>
       <c r="AF22" t="n">
-        <v>102598</v>
+        <v>10042256.384</v>
       </c>
       <c r="AG22" t="n">
-        <v>100841</v>
+        <v>11797663.744</v>
       </c>
       <c r="AH22" t="n">
-        <v>101902</v>
+        <v>12470705.152</v>
       </c>
       <c r="AI22" t="n">
-        <v>97780</v>
+        <v>12374344.704</v>
       </c>
       <c r="AJ22" t="n">
         <v>12539711.488</v>
@@ -3185,31 +3185,31 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>25579</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>25765</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>24330</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>22509</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>22203</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>22931</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>31101</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>33293</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>33278</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3539,31 +3539,31 @@
         <v>10502356.992</v>
       </c>
       <c r="AA26" t="n">
-        <v>2177210.88</v>
+        <v>10911012.864</v>
       </c>
       <c r="AB26" t="n">
-        <v>2597922.048</v>
+        <v>10655114.24</v>
       </c>
       <c r="AC26" t="n">
-        <v>2933908.992</v>
+        <v>11232995.328</v>
       </c>
       <c r="AD26" t="n">
-        <v>2917630.976</v>
+        <v>11038651.392</v>
       </c>
       <c r="AE26" t="n">
-        <v>2784852.992</v>
+        <v>11910013.952</v>
       </c>
       <c r="AF26" t="n">
-        <v>2798430.976</v>
+        <v>11709267.968</v>
       </c>
       <c r="AG26" t="n">
-        <v>2733836.032</v>
+        <v>14017541.12</v>
       </c>
       <c r="AH26" t="n">
-        <v>2836649.984</v>
+        <v>13456728.064</v>
       </c>
       <c r="AI26" t="n">
-        <v>3150611.968</v>
+        <v>14400964.608</v>
       </c>
       <c r="AJ26" t="n">
         <v>14004319.232</v>
@@ -3657,31 +3657,31 @@
         <v>64608</v>
       </c>
       <c r="AA27" t="n">
-        <v>756568</v>
+        <v>98800</v>
       </c>
       <c r="AB27" t="n">
-        <v>1115378.944</v>
+        <v>95116</v>
       </c>
       <c r="AC27" t="n">
-        <v>1400249.984</v>
+        <v>111651</v>
       </c>
       <c r="AD27" t="n">
-        <v>1387945.984</v>
+        <v>123374</v>
       </c>
       <c r="AE27" t="n">
-        <v>991809.024</v>
+        <v>155604</v>
       </c>
       <c r="AF27" t="n">
-        <v>1067486.016</v>
+        <v>817364.992</v>
       </c>
       <c r="AG27" t="n">
-        <v>770083.968</v>
+        <v>828657.9840000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>791460.992</v>
+        <v>132508</v>
       </c>
       <c r="AI27" t="n">
-        <v>990737.024</v>
+        <v>115310</v>
       </c>
       <c r="AJ27" t="n">
         <v>1415171.968</v>
@@ -3775,31 +3775,31 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>17006</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>16567</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>16264</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>20929</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>23709</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>18487</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>22653</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>26462</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>29799</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
         <v>0</v>
@@ -3893,31 +3893,31 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>90214</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>87488</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>83823</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>113748</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>104282</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>114591</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>121055</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>118958</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>144820.992</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -4011,31 +4011,31 @@
         <v>33980</v>
       </c>
       <c r="AA30" t="n">
-        <v>23479</v>
+        <v>51666</v>
       </c>
       <c r="AB30" t="n">
-        <v>17893</v>
+        <v>51481</v>
       </c>
       <c r="AC30" t="n">
-        <v>22293</v>
+        <v>53031</v>
       </c>
       <c r="AD30" t="n">
-        <v>26892</v>
+        <v>50261</v>
       </c>
       <c r="AE30" t="n">
-        <v>27780</v>
+        <v>57538</v>
       </c>
       <c r="AF30" t="n">
-        <v>28693</v>
+        <v>43942</v>
       </c>
       <c r="AG30" t="n">
-        <v>31522</v>
+        <v>60578</v>
       </c>
       <c r="AH30" t="n">
-        <v>31634</v>
+        <v>58552</v>
       </c>
       <c r="AI30" t="n">
-        <v>30075</v>
+        <v>59710</v>
       </c>
       <c r="AJ30" t="n">
         <v>62222</v>
@@ -4129,31 +4129,31 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>63863</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>68020</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>67654</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>75764</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>32789</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>120906</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>114117</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>138967.008</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>134940</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
@@ -4247,31 +4247,31 @@
         <v>30576</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>45210</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>43154</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>58568</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>73005</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>96038</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>76359</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>47982</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>73831</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>53350</v>
       </c>
       <c r="AJ32" t="n">
         <v>74359</v>
@@ -4368,28 +4368,28 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>71191</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>71191</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>78348</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>18348</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -4483,31 +4483,31 @@
         <v>52</v>
       </c>
       <c r="AA34" t="n">
-        <v>549720</v>
+        <v>1924</v>
       </c>
       <c r="AB34" t="n">
-        <v>842439.976</v>
+        <v>481</v>
       </c>
       <c r="AC34" t="n">
-        <v>1127611.048</v>
+        <v>52</v>
       </c>
       <c r="AD34" t="n">
-        <v>989121.024</v>
+        <v>108</v>
       </c>
       <c r="AE34" t="n">
-        <v>792982.976</v>
+        <v>2028</v>
       </c>
       <c r="AF34" t="n">
-        <v>696272.032</v>
+        <v>697064</v>
       </c>
       <c r="AG34" t="n">
-        <v>451672.992</v>
+        <v>720097.9840000001</v>
       </c>
       <c r="AH34" t="n">
-        <v>464343.008</v>
+        <v>125</v>
       </c>
       <c r="AI34" t="n">
-        <v>490177.024</v>
+        <v>2250</v>
       </c>
       <c r="AJ34" t="n">
         <v>1278590.976</v>
@@ -4601,31 +4601,31 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>12286</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>11780</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>11414</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>11492</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>10266</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>10189</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>10716</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>11097</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>10925</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -4837,31 +4837,31 @@
         <v>904</v>
       </c>
       <c r="AA37" t="n">
-        <v>663451.008</v>
+        <v>903</v>
       </c>
       <c r="AB37" t="n">
-        <v>744214.976</v>
+        <v>1229</v>
       </c>
       <c r="AC37" t="n">
-        <v>741516.992</v>
+        <v>1226</v>
       </c>
       <c r="AD37" t="n">
-        <v>733438.976</v>
+        <v>1226</v>
       </c>
       <c r="AE37" t="n">
-        <v>920710.976</v>
+        <v>1226</v>
       </c>
       <c r="AF37" t="n">
-        <v>853196.992</v>
+        <v>2791</v>
       </c>
       <c r="AG37" t="n">
-        <v>994099.008</v>
+        <v>2756</v>
       </c>
       <c r="AH37" t="n">
-        <v>942702.0159999999</v>
+        <v>2887</v>
       </c>
       <c r="AI37" t="n">
-        <v>1103710.976</v>
+        <v>3266</v>
       </c>
       <c r="AJ37" t="n">
         <v>3267</v>
@@ -4955,31 +4955,31 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>326360.992</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>323208</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>323208</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>323208</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>423232</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>360081.984</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>360400</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>360640</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>510779.008</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
         <v>0</v>
@@ -5073,31 +5073,31 @@
         <v>904</v>
       </c>
       <c r="AA39" t="n">
-        <v>752</v>
+        <v>903</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>2791</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2887</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>3266</v>
       </c>
       <c r="AJ39" t="n">
         <v>3267</v>
@@ -5191,31 +5191,31 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>294980</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>374569.984</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>367692</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>355649.984</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>439710.016</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>429912</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>567132.032</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>507424.992</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>509198.016</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
         <v>0</v>
@@ -5545,31 +5545,31 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>41358</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>46437</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>50617</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>54581</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>57769</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>63203</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>66567</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>74637</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>83734</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
@@ -5899,31 +5899,31 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>148534</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>147230</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>144035.008</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>147818</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>134033</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>126011</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>126067</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>137528</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>132985</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
         <v>0</v>
@@ -6017,31 +6017,31 @@
         <v>10436844.544</v>
       </c>
       <c r="AA47" t="n">
-        <v>608658</v>
+        <v>10811310.08</v>
       </c>
       <c r="AB47" t="n">
-        <v>591098</v>
+        <v>10558769.152</v>
       </c>
       <c r="AC47" t="n">
-        <v>648107.0079999999</v>
+        <v>11120117.76</v>
       </c>
       <c r="AD47" t="n">
-        <v>648428.0159999999</v>
+        <v>10914051.072</v>
       </c>
       <c r="AE47" t="n">
-        <v>738299.992</v>
+        <v>11753184.256</v>
       </c>
       <c r="AF47" t="n">
-        <v>751736.968</v>
+        <v>10889111.552</v>
       </c>
       <c r="AG47" t="n">
-        <v>843585.992</v>
+        <v>13186126.848</v>
       </c>
       <c r="AH47" t="n">
-        <v>964959.04</v>
+        <v>13321332.736</v>
       </c>
       <c r="AI47" t="n">
-        <v>923178.9680000001</v>
+        <v>14282389.504</v>
       </c>
       <c r="AJ47" t="n">
         <v>12585879.552</v>
@@ -6135,31 +6135,31 @@
         <v>2756687.104</v>
       </c>
       <c r="AA48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AB48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AC48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AD48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AE48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AF48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AG48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AH48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AI48" t="n">
-        <v>291054.016</v>
+        <v>2756687.104</v>
       </c>
       <c r="AJ48" t="n">
         <v>2756687.104</v>
@@ -6253,31 +6253,31 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>17598</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>17477</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>12583</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>5388</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
         <v>0</v>
@@ -6489,31 +6489,31 @@
         <v>1141484.032</v>
       </c>
       <c r="AA51" t="n">
-        <v>300006.016</v>
+        <v>1141484.032</v>
       </c>
       <c r="AB51" t="n">
-        <v>282567.008</v>
+        <v>2303796.992</v>
       </c>
       <c r="AC51" t="n">
-        <v>344470.016</v>
+        <v>2303796.992</v>
       </c>
       <c r="AD51" t="n">
-        <v>351985.984</v>
+        <v>1416425.984</v>
       </c>
       <c r="AE51" t="n">
-        <v>441857.984</v>
+        <v>1416425.984</v>
       </c>
       <c r="AF51" t="n">
-        <v>455295.008</v>
+        <v>2520163.072</v>
       </c>
       <c r="AG51" t="n">
-        <v>547144</v>
+        <v>2520163.072</v>
       </c>
       <c r="AH51" t="n">
-        <v>668516.992</v>
+        <v>1717118.976</v>
       </c>
       <c r="AI51" t="n">
-        <v>626737.024</v>
+        <v>1717118.976</v>
       </c>
       <c r="AJ51" t="n">
         <v>4052165.12</v>
@@ -6607,31 +6607,31 @@
         <v>858291.008</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1350427.008</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>557038.0159999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1237826.048</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>2004076.032</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>2345520.896</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>3214929.92</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>4189242.88</v>
       </c>
       <c r="AJ52" t="n">
         <v>0</v>
@@ -6961,31 +6961,31 @@
         <v>5680382.976</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>5562712.064</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>5498285.056</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>5502596.096</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>5503112.192</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>5575994.88</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>5612261.888</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>5563756.032</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>5632596.992</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>5619339.776</v>
       </c>
       <c r="AJ55" t="n">
         <v>0</v>
@@ -7285,31 +7285,31 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>456448.992</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>491223.04</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>447374.016</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>602782.976</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>626659.008</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>580478.08</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>594956.032</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>727745.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>751873.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
         <v>0</v>
@@ -7403,31 +7403,31 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>-281478.016</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>-304781.056</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>-281464.992</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>-387286.016</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>-392916</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>-358735.04</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>-371272</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>-453192</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>-467971.008</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
         <v>0</v>
@@ -7521,31 +7521,31 @@
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>174971.008</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>186441.968</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>165908.992</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>215496.992</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>233743.008</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>221743.04</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>223684</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>274553.984</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>283903.008</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
         <v>0</v>
@@ -7639,31 +7639,31 @@
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>-47954</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>-46959</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>-44417</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>-53835</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>-59384</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>-54552</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>-62031</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
-        <v>-66728</v>
+        <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>-80995</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>0</v>
@@ -7757,31 +7757,31 @@
         <v>-19665</v>
       </c>
       <c r="AA63" t="n">
-        <v>-31117</v>
+        <v>-15966</v>
       </c>
       <c r="AB63" t="n">
-        <v>-26689</v>
+        <v>-20353</v>
       </c>
       <c r="AC63" t="n">
-        <v>-22810</v>
+        <v>-22135</v>
       </c>
       <c r="AD63" t="n">
-        <v>-34143</v>
+        <v>-24184</v>
       </c>
       <c r="AE63" t="n">
-        <v>-49409</v>
+        <v>-24123</v>
       </c>
       <c r="AF63" t="n">
-        <v>-30206</v>
+        <v>-29860</v>
       </c>
       <c r="AG63" t="n">
-        <v>-33375</v>
+        <v>-26198</v>
       </c>
       <c r="AH63" t="n">
-        <v>-42088</v>
+        <v>-29655</v>
       </c>
       <c r="AI63" t="n">
-        <v>-54245</v>
+        <v>-30628</v>
       </c>
       <c r="AJ63" t="n">
         <v>-23555</v>
@@ -7993,31 +7993,31 @@
         <v>192604</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>329649.984</v>
       </c>
       <c r="AB65" t="n">
-        <v>40444</v>
+        <v>331238.016</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>280291.008</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>340624.992</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>436880.992</v>
       </c>
       <c r="AF65" t="n">
-        <v>2756</v>
+        <v>324449.024</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>416352.992</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>390808</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>406659.008</v>
       </c>
       <c r="AJ65" t="n">
         <v>425163.04</v>
@@ -8111,31 +8111,31 @@
         <v>-22810</v>
       </c>
       <c r="AA66" t="n">
-        <v>-8907</v>
+        <v>-34998</v>
       </c>
       <c r="AB66" t="n">
-        <v>-16648</v>
+        <v>-40283</v>
       </c>
       <c r="AC66" t="n">
-        <v>-19298</v>
+        <v>-28423</v>
       </c>
       <c r="AD66" t="n">
-        <v>-15382</v>
+        <v>-50049</v>
       </c>
       <c r="AE66" t="n">
-        <v>-11456</v>
+        <v>-64946</v>
       </c>
       <c r="AF66" t="n">
-        <v>-15694</v>
+        <v>244768.992</v>
       </c>
       <c r="AG66" t="n">
-        <v>-12810</v>
+        <v>-58331</v>
       </c>
       <c r="AH66" t="n">
-        <v>-18568</v>
+        <v>-59835</v>
       </c>
       <c r="AI66" t="n">
-        <v>-12803</v>
+        <v>-63641</v>
       </c>
       <c r="AJ66" t="n">
         <v>-65361.992</v>
@@ -8229,31 +8229,31 @@
         <v>327199.008</v>
       </c>
       <c r="AA67" t="n">
-        <v>-946</v>
+        <v>305828</v>
       </c>
       <c r="AB67" t="n">
-        <v>-991</v>
+        <v>366546.944</v>
       </c>
       <c r="AC67" t="n">
-        <v>-311</v>
+        <v>399987.008</v>
       </c>
       <c r="AD67" t="n">
-        <v>-141</v>
+        <v>492495.008</v>
       </c>
       <c r="AE67" t="n">
-        <v>976</v>
+        <v>519206.016</v>
       </c>
       <c r="AF67" t="n">
-        <v>-145</v>
+        <v>526437.92</v>
       </c>
       <c r="AG67" t="n">
-        <v>-110</v>
+        <v>587372.992</v>
       </c>
       <c r="AH67" t="n">
-        <v>696</v>
+        <v>651547.008</v>
       </c>
       <c r="AI67" t="n">
-        <v>-295</v>
+        <v>749785.024</v>
       </c>
       <c r="AJ67" t="n">
         <v>680744.96</v>
@@ -8347,31 +8347,31 @@
         <v>2444</v>
       </c>
       <c r="AA68" t="n">
-        <v>-1071</v>
+        <v>5012</v>
       </c>
       <c r="AB68" t="n">
-        <v>-13246</v>
+        <v>3296</v>
       </c>
       <c r="AC68" t="n">
-        <v>-4085</v>
+        <v>14034</v>
       </c>
       <c r="AD68" t="n">
-        <v>-4609</v>
+        <v>21273</v>
       </c>
       <c r="AE68" t="n">
-        <v>-4065</v>
+        <v>28936</v>
       </c>
       <c r="AF68" t="n">
-        <v>-11678</v>
+        <v>33445</v>
       </c>
       <c r="AG68" t="n">
-        <v>-5444</v>
+        <v>15189</v>
       </c>
       <c r="AH68" t="n">
-        <v>-5601</v>
+        <v>31847</v>
       </c>
       <c r="AI68" t="n">
-        <v>-3546</v>
+        <v>31653</v>
       </c>
       <c r="AJ68" t="n">
         <v>35179</v>
@@ -8465,31 +8465,31 @@
         <v>2444</v>
       </c>
       <c r="AA69" t="n">
-        <v>10356</v>
+        <v>5568</v>
       </c>
       <c r="AB69" t="n">
-        <v>8485</v>
+        <v>6729</v>
       </c>
       <c r="AC69" t="n">
-        <v>12977</v>
+        <v>14232</v>
       </c>
       <c r="AD69" t="n">
-        <v>17605</v>
+        <v>21274</v>
       </c>
       <c r="AE69" t="n">
-        <v>18795</v>
+        <v>29104</v>
       </c>
       <c r="AF69" t="n">
-        <v>14654</v>
+        <v>33572</v>
       </c>
       <c r="AG69" t="n">
-        <v>20228</v>
+        <v>37870</v>
       </c>
       <c r="AH69" t="n">
-        <v>20425</v>
+        <v>40296</v>
       </c>
       <c r="AI69" t="n">
-        <v>19668</v>
+        <v>32508</v>
       </c>
       <c r="AJ69" t="n">
         <v>37138.992</v>
@@ -8583,31 +8583,31 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>-11427</v>
+        <v>-556</v>
       </c>
       <c r="AB70" t="n">
-        <v>-21731</v>
+        <v>-3433</v>
       </c>
       <c r="AC70" t="n">
-        <v>-17062</v>
+        <v>-198</v>
       </c>
       <c r="AD70" t="n">
-        <v>-22214</v>
+        <v>-1</v>
       </c>
       <c r="AE70" t="n">
-        <v>-22860</v>
+        <v>-168</v>
       </c>
       <c r="AF70" t="n">
-        <v>-26332</v>
+        <v>-127</v>
       </c>
       <c r="AG70" t="n">
-        <v>-25672</v>
+        <v>-22681</v>
       </c>
       <c r="AH70" t="n">
-        <v>-26026</v>
+        <v>-8449</v>
       </c>
       <c r="AI70" t="n">
-        <v>-23214</v>
+        <v>-855</v>
       </c>
       <c r="AJ70" t="n">
         <v>-1960</v>
@@ -8833,31 +8833,31 @@
         <v>479772</v>
       </c>
       <c r="AA74" t="n">
-        <v>84976</v>
+        <v>589526.0159999999</v>
       </c>
       <c r="AB74" t="n">
-        <v>122352.992</v>
+        <v>640444.992</v>
       </c>
       <c r="AC74" t="n">
-        <v>74988</v>
+        <v>643753.9840000001</v>
       </c>
       <c r="AD74" t="n">
-        <v>107387</v>
+        <v>780160</v>
       </c>
       <c r="AE74" t="n">
-        <v>110405</v>
+        <v>895953.9840000001</v>
       </c>
       <c r="AF74" t="n">
-        <v>112224</v>
+        <v>1099241.216</v>
       </c>
       <c r="AG74" t="n">
-        <v>109914</v>
+        <v>934385.9840000001</v>
       </c>
       <c r="AH74" t="n">
-        <v>142264.992</v>
+        <v>984712</v>
       </c>
       <c r="AI74" t="n">
-        <v>132019</v>
+        <v>1093827.968</v>
       </c>
       <c r="AJ74" t="n">
         <v>1052169.984</v>
@@ -8951,31 +8951,31 @@
         <v>-52168</v>
       </c>
       <c r="AA75" t="n">
-        <v>-9486</v>
+        <v>-96362</v>
       </c>
       <c r="AB75" t="n">
-        <v>-10799</v>
+        <v>-97642.008</v>
       </c>
       <c r="AC75" t="n">
-        <v>-9507</v>
+        <v>-85447</v>
       </c>
       <c r="AD75" t="n">
-        <v>-12324</v>
+        <v>-97948</v>
       </c>
       <c r="AE75" t="n">
-        <v>-13899</v>
+        <v>-128240</v>
       </c>
       <c r="AF75" t="n">
-        <v>-15026</v>
+        <v>-201569.984</v>
       </c>
       <c r="AG75" t="n">
-        <v>-13709</v>
+        <v>-118124</v>
       </c>
       <c r="AH75" t="n">
-        <v>-15906</v>
+        <v>-113450</v>
       </c>
       <c r="AI75" t="n">
-        <v>-18328</v>
+        <v>-117756</v>
       </c>
       <c r="AJ75" t="n">
         <v>-133481.008</v>
@@ -9069,31 +9069,31 @@
         <v>-970</v>
       </c>
       <c r="AA76" t="n">
-        <v>-843</v>
+        <v>-1028</v>
       </c>
       <c r="AB76" t="n">
-        <v>89</v>
+        <v>2922</v>
       </c>
       <c r="AC76" t="n">
-        <v>-2130</v>
+        <v>-1269</v>
       </c>
       <c r="AD76" t="n">
-        <v>-2124</v>
+        <v>-1424</v>
       </c>
       <c r="AE76" t="n">
-        <v>-1635</v>
+        <v>-1464</v>
       </c>
       <c r="AF76" t="n">
-        <v>81</v>
+        <v>4198</v>
       </c>
       <c r="AG76" t="n">
-        <v>-1627</v>
+        <v>-1891</v>
       </c>
       <c r="AH76" t="n">
-        <v>-2289</v>
+        <v>-1853</v>
       </c>
       <c r="AI76" t="n">
-        <v>-800</v>
+        <v>-1759</v>
       </c>
       <c r="AJ76" t="n">
         <v>5462</v>
@@ -9275,31 +9275,31 @@
         <v>0</v>
       </c>
       <c r="AA79" t="n">
-        <v>-7242</v>
+        <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>6109</v>
+        <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>-1448</v>
+        <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>-6614</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>-4999</v>
+        <v>0</v>
       </c>
       <c r="AF79" t="n">
-        <v>-5494</v>
+        <v>0</v>
       </c>
       <c r="AG79" t="n">
-        <v>-2207</v>
+        <v>0</v>
       </c>
       <c r="AH79" t="n">
-        <v>-2697</v>
+        <v>0</v>
       </c>
       <c r="AI79" t="n">
-        <v>-4671</v>
+        <v>0</v>
       </c>
       <c r="AJ79" t="n">
         <v>0</v>
@@ -9393,31 +9393,31 @@
         <v>426633.984</v>
       </c>
       <c r="AA80" t="n">
-        <v>67405</v>
+        <v>492136</v>
       </c>
       <c r="AB80" t="n">
-        <v>103751.992</v>
+        <v>545725.056</v>
       </c>
       <c r="AC80" t="n">
-        <v>61903</v>
+        <v>557038.0159999999</v>
       </c>
       <c r="AD80" t="n">
-        <v>86325</v>
+        <v>680787.968</v>
       </c>
       <c r="AE80" t="n">
-        <v>89872</v>
+        <v>766249.9840000001</v>
       </c>
       <c r="AF80" t="n">
-        <v>91784.992</v>
+        <v>948763.968</v>
       </c>
       <c r="AG80" t="n">
-        <v>91849</v>
+        <v>814371.008</v>
       </c>
       <c r="AH80" t="n">
-        <v>121373</v>
+        <v>869409.024</v>
       </c>
       <c r="AI80" t="n">
-        <v>108220</v>
+        <v>974313.024</v>
       </c>
       <c r="AJ80" t="n">
         <v>924151.04</v>
